--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_AREPD_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.4726913208626751</v>
+        <v>0.5739478350893729</v>
       </c>
       <c r="D2">
-        <v>0.6364948566516779</v>
+        <v>0.5718249855010749</v>
       </c>
       <c r="E2">
         <v>0.9539813477124449</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.005679521072444</v>
+        <v>0.9176656321648641</v>
       </c>
       <c r="D3">
-        <v>0.3147146678842678</v>
+        <v>0.368745342755421</v>
       </c>
       <c r="E3">
         <v>0.9539813477124449</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.582065051766029</v>
+        <v>1.424647619281205</v>
       </c>
       <c r="D4">
-        <v>0.113823060935005</v>
+        <v>0.1682911359581423</v>
       </c>
       <c r="E4">
         <v>0.9539813477124449</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>0.3438297871877529</v>
+        <v>0.4212650398169749</v>
       </c>
       <c r="D5">
-        <v>0.7310173494965349</v>
+        <v>0.6776488631679007</v>
       </c>
       <c r="E5">
         <v>0.9539813477124449</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5981353837357609</v>
+        <v>0.5127073571464054</v>
       </c>
       <c r="D6">
-        <v>0.5498302740159025</v>
+        <v>0.6132657044393484</v>
       </c>
       <c r="E6">
         <v>0.9282748543247665</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.7766873534660749</v>
+        <v>0.7188609340482601</v>
       </c>
       <c r="D7">
-        <v>0.4374526529344076</v>
+        <v>0.4797929885980197</v>
       </c>
       <c r="E7">
         <v>0.9282748543247665</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.05270640109863837</v>
+        <v>-0.05844310531803317</v>
       </c>
       <c r="D8">
-        <v>0.9579721086959538</v>
+        <v>0.9539232877863097</v>
       </c>
       <c r="E8">
         <v>0.9282748543247665</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3243827739801843</v>
+        <v>0.2081560037133113</v>
       </c>
       <c r="D9">
-        <v>0.7456886663431903</v>
+        <v>0.8370221699977993</v>
       </c>
       <c r="E9">
         <v>0.8995417296509053</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5500723764739964</v>
+        <v>-0.49366620018346</v>
       </c>
       <c r="D10">
-        <v>0.5823428980721079</v>
+        <v>0.6264344125763706</v>
       </c>
       <c r="E10">
         <v>0.8995417296509053</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.685418962930072</v>
+        <v>-0.6274056657128783</v>
       </c>
       <c r="D11">
-        <v>0.4931742005313224</v>
+        <v>0.5368514259868142</v>
       </c>
       <c r="E11">
         <v>0.8797158690753345</v>
